--- a/doc/azure_ai_search_setup_02.xlsx
+++ b/doc/azure_ai_search_setup_02.xlsx
@@ -300,7 +300,7 @@
   </si>
   <si>
     <r>
-      <t>azure_ai_search_setup_01</t>
+      <t>azure_ai_search_setup_02</t>
     </r>
     <r>
       <rPr>
@@ -693,7 +693,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
